--- a/Modelos em Python/resultado_nemenyi_mae.xlsx
+++ b/Modelos em Python/resultado_nemenyi_mae.xlsx
@@ -547,34 +547,34 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9996970351503156</v>
+        <v>0.9942280523701608</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999999999995994</v>
+        <v>0.999999999999825</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05070658922937512</v>
+        <v>0.04160606267909008</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0320782999045069</v>
+        <v>0.02541928739178422</v>
       </c>
       <c r="K2" t="n">
-        <v>0.999979655428641</v>
+        <v>0.9999694664282879</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9996970351503156</v>
+        <v>0.9942280523701608</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9999999999919553</v>
+        <v>0.9999999999763223</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9435263523749863</v>
+        <v>0.9223293410851037</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09403185512545449</v>
+        <v>0.1074594209860342</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7316862343275934</v>
+        <v>0.6857438872982189</v>
       </c>
     </row>
     <row r="3">
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9997556609293121</v>
+        <v>0.9951846776758988</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9999999999989995</v>
+        <v>0.9999999999994412</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0548984045640694</v>
+        <v>0.04597100461404051</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03495543527507347</v>
+        <v>0.02831584187522105</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9999846080523732</v>
+        <v>0.9999779943789068</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9997556609293121</v>
+        <v>0.9951846776758988</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9999999999963912</v>
+        <v>0.9999999999904962</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9487036666902303</v>
+        <v>0.9302444152830072</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1008260567127619</v>
+        <v>0.11662015316839</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7459640792861522</v>
+        <v>0.7042597308744326</v>
       </c>
     </row>
     <row r="4">
@@ -669,34 +669,34 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9999407429096282</v>
+        <v>0.9982197778532474</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9999999998946892</v>
+        <v>0.99999999992829</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08670092020469301</v>
+        <v>0.07415208976522472</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05741718380670252</v>
+        <v>0.0475988225522491</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9999975832257784</v>
+        <v>0.9999964178514729</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9999999999993628</v>
+        <v>0.9999999999988644</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9999407429096282</v>
+        <v>0.9982197778532474</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9999999999999907</v>
+        <v>0.9999999999999659</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9728295720309962</v>
+        <v>0.9615299491464554</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1501692978074877</v>
+        <v>0.1717956003943187</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8241912481311165</v>
+        <v>0.790196617424953</v>
       </c>
     </row>
     <row r="5">
@@ -730,34 +730,34 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9997400473781473</v>
+        <v>0.9949185029488582</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9999999999992257</v>
+        <v>0.9999999999995994</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0536730235835409</v>
+        <v>0.04464972780492992</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03411211486628787</v>
+        <v>0.02743615626116927</v>
       </c>
       <c r="K5" t="n">
-        <v>0.999983319425726</v>
+        <v>0.9999757449393215</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9997400473781473</v>
+        <v>0.9949185029488582</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9999999999954435</v>
+        <v>0.9999999999875008</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9472623878780672</v>
+        <v>0.9279799374946214</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09884810883431702</v>
+        <v>0.1138680557125733</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7419213951262693</v>
+        <v>0.6988592913167877</v>
       </c>
     </row>
     <row r="6">
@@ -791,34 +791,34 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.999956455045122</v>
+        <v>0.9985615634501179</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9999999997687802</v>
+        <v>0.9999999998395077</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09450527766910609</v>
+        <v>0.08107469498891418</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06307936896455316</v>
+        <v>0.05246921548590947</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9999983900621514</v>
+        <v>0.9999975831886049</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9999999999981333</v>
+        <v>0.9999999999967923</v>
       </c>
       <c r="M6" t="n">
-        <v>0.999956455045122</v>
+        <v>0.9985615634501179</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9999999999999979</v>
+        <v>0.9999999999999915</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9763384164631481</v>
+        <v>0.966162414070792</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1617833382065257</v>
+        <v>0.1845031022484848</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8379370189500721</v>
+        <v>0.8054275387576292</v>
       </c>
     </row>
     <row r="7">
@@ -837,58 +837,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9996970351503156</v>
+        <v>0.9942280523701608</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9997556609293121</v>
+        <v>0.9951846776758988</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999407429096282</v>
+        <v>0.9982197778532474</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997400473781473</v>
+        <v>0.9949185029488582</v>
       </c>
       <c r="F7" t="n">
-        <v>0.999956455045122</v>
+        <v>0.9985615634501179</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.993114693442308</v>
+        <v>0.9541730302999548</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8539938347191225</v>
+        <v>0.9564213958894222</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7901981267076381</v>
+        <v>0.9251929949014686</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999997470126</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9975016620019289</v>
+        <v>0.9741120329791934</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9999991573277009</v>
+        <v>0.9999254368627951</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9999999626871546</v>
+        <v>0.9999999999786762</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9237715054298662</v>
+        <v>0.9900534448315782</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9998007718358193</v>
+        <v>0.9957286536657738</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9999374886876229</v>
+        <v>0.9981526197391444</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9999505123374889</v>
+        <v>0.9999991573145582</v>
       </c>
     </row>
     <row r="8">
@@ -898,58 +898,58 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0.999999999999825</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9999999999994412</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.99999999992829</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.9999999999995994</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.9999999999989995</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9999999998946892</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9999999999992257</v>
-      </c>
       <c r="F8" t="n">
-        <v>0.9999999997687802</v>
+        <v>0.9999999998395077</v>
       </c>
       <c r="G8" t="n">
-        <v>0.993114693442308</v>
+        <v>0.9541730302999548</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01014881695339141</v>
+        <v>0.008648991466320033</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005727052772026098</v>
+        <v>0.004720368732019025</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9988742918419483</v>
+        <v>0.9987345120574842</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0.993114693442308</v>
+        <v>0.9541730302999548</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9999998392072459</v>
+        <v>0.9999997977876655</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7800127481514563</v>
+        <v>0.7439447453299941</v>
       </c>
       <c r="P8" t="n">
-        <v>0.02233949966171875</v>
+        <v>0.02867436253240938</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9999999999977597</v>
+        <v>0.9999999999988644</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9999999999087222</v>
+        <v>0.9999999999380674</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4430730541950977</v>
+        <v>0.4068900230061643</v>
       </c>
     </row>
     <row r="9">
@@ -959,25 +959,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05070658922937512</v>
+        <v>0.04160606267909008</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0548984045640694</v>
+        <v>0.04597100461404051</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08670092020469301</v>
+        <v>0.07415208976522472</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0536730235835409</v>
+        <v>0.04464972780492992</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09450527766910609</v>
+        <v>0.08107469498891418</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8539938347191225</v>
+        <v>0.9564213958894222</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01014881695339141</v>
+        <v>0.008648991466320033</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -986,31 +986,31 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7117557985172921</v>
+        <v>0.6977745696477533</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01919901805170224</v>
+        <v>0.01474264054130164</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8539938347191225</v>
+        <v>0.9564213958894222</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2133940240409749</v>
+        <v>0.2018394254081202</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9973809004381964</v>
+        <v>0.9978091710259364</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.05903825207674097</v>
+        <v>0.04899119666379644</v>
       </c>
       <c r="R9" t="n">
-        <v>0.08537678848223287</v>
+        <v>0.07298016272622442</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9999706065141514</v>
+        <v>0.9999752706606589</v>
       </c>
     </row>
     <row r="10">
@@ -1020,25 +1020,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0320782999045069</v>
+        <v>0.02541928739178422</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03495543527507347</v>
+        <v>0.02831584187522105</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05741718380670252</v>
+        <v>0.0475988225522491</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03411211486628787</v>
+        <v>0.02743615626116927</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06307936896455316</v>
+        <v>0.05246921548590947</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7901981267076381</v>
+        <v>0.9251929949014686</v>
       </c>
       <c r="H10" t="n">
-        <v>0.005727052772026098</v>
+        <v>0.004720368732019025</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1047,31 +1047,31 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6255774886369287</v>
+        <v>0.6068369358845604</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01129918524762188</v>
+        <v>0.008336998045343422</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7901981267076381</v>
+        <v>0.9251929949014686</v>
       </c>
       <c r="N10" t="n">
-        <v>0.154879302207362</v>
+        <v>0.1436138262879808</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9938540260056474</v>
+        <v>0.9945826312353547</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9999999999999949</v>
+        <v>0.9999999999993628</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03781785036329598</v>
+        <v>0.03033572824586462</v>
       </c>
       <c r="R10" t="n">
-        <v>0.05646191876492956</v>
+        <v>0.04677909656158089</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9998836612903237</v>
+        <v>0.9998948332707006</v>
       </c>
     </row>
     <row r="11">
@@ -1081,58 +1081,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999979655428641</v>
+        <v>0.9999694664282879</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9999846080523732</v>
+        <v>0.9999779943789068</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999975832257784</v>
+        <v>0.9999964178514729</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999983319425726</v>
+        <v>0.9999757449393215</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999983900621514</v>
+        <v>0.9999975831886049</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999997470126</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9988742918419483</v>
+        <v>0.9987345120574842</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7117557985172921</v>
+        <v>0.6977745696477533</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6255774886369287</v>
+        <v>0.6068369358845604</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9996924021616772</v>
+        <v>0.9995474238123788</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999997470126</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9999999924068509</v>
+        <v>0.9999999921303288</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9999973457888351</v>
+        <v>0.9999949817476836</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8216969198265386</v>
+        <v>0.8591161561360803</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9999881938555958</v>
+        <v>0.9999822888715498</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9999974070800441</v>
+        <v>0.9999961651502576</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9993974093105712</v>
+        <v>0.9991828500517769</v>
       </c>
     </row>
     <row r="12">
@@ -1142,58 +1142,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999999999993628</v>
+        <v>0.9999999999988644</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999999999981333</v>
+        <v>0.9999999999967923</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9975016620019289</v>
+        <v>0.9741120329791934</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01919901805170224</v>
+        <v>0.01474264054130164</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01129918524762188</v>
+        <v>0.008336998045343422</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9996924021616772</v>
+        <v>0.9995474238123788</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9975016620019289</v>
+        <v>0.9741120329791934</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9999999915493174</v>
+        <v>0.9999999799807124</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8569355768601843</v>
+        <v>0.8140904174053036</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03967466807859171</v>
+        <v>0.04517443243272309</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9999999999999976</v>
+        <v>0.9999999999999958</v>
       </c>
       <c r="R12" t="n">
-        <v>0.999999999999477</v>
+        <v>0.9999999999990612</v>
       </c>
       <c r="S12" t="n">
-        <v>0.553248456883755</v>
+        <v>0.4955131450765765</v>
       </c>
     </row>
     <row r="13">
@@ -1203,58 +1203,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9996970351503156</v>
+        <v>0.9942280523701608</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9997556609293121</v>
+        <v>0.9951846776758988</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999407429096282</v>
+        <v>0.9982197778532474</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9997400473781473</v>
+        <v>0.9949185029488582</v>
       </c>
       <c r="F13" t="n">
-        <v>0.999956455045122</v>
+        <v>0.9985615634501179</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.993114693442308</v>
+        <v>0.9541730302999548</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8539938347191225</v>
+        <v>0.9564213958894222</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7901981267076381</v>
+        <v>0.9251929949014686</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999997470126</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9975016620019289</v>
+        <v>0.9741120329791934</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9999991573277009</v>
+        <v>0.9999254368627951</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9999999626871546</v>
+        <v>0.9999999999786762</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9237715054298662</v>
+        <v>0.9900534448315782</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9998007718358193</v>
+        <v>0.9957286536657738</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9999374886876229</v>
+        <v>0.9981526197391444</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9999505123374889</v>
+        <v>0.9999991573145582</v>
       </c>
     </row>
     <row r="14">
@@ -1264,58 +1264,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999999999919553</v>
+        <v>0.9999999999763223</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999999999963912</v>
+        <v>0.9999999999904962</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999999999999907</v>
+        <v>0.9999999999999659</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999999999954435</v>
+        <v>0.9999999999875008</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999999999999979</v>
+        <v>0.9999999999999915</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9999991573277009</v>
+        <v>0.9999254368627951</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9999998392072459</v>
+        <v>0.9999997977876655</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2133940240409749</v>
+        <v>0.2018394254081202</v>
       </c>
       <c r="J14" t="n">
-        <v>0.154879302207362</v>
+        <v>0.1436138262879808</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9999999924068509</v>
+        <v>0.9999999921303288</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9999999915493174</v>
+        <v>0.9999999799807124</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9999991573277009</v>
+        <v>0.9999254368627951</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9958675900093579</v>
+        <v>0.994348373682664</v>
       </c>
       <c r="P14" t="n">
-        <v>0.3227539599656162</v>
+        <v>0.3739051150900054</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9999999999983491</v>
+        <v>0.9999999999948865</v>
       </c>
       <c r="R14" t="n">
-        <v>0.9999999999999881</v>
+        <v>0.999999999999957</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9435263523749863</v>
+        <v>0.9341894197756684</v>
       </c>
     </row>
     <row r="15">
@@ -1325,58 +1325,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9435263523749863</v>
+        <v>0.9223293410851037</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9487036666902303</v>
+        <v>0.9302444152830072</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9728295720309962</v>
+        <v>0.9615299491464554</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9472623878780672</v>
+        <v>0.9279799374946214</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9763384164631481</v>
+        <v>0.966162414070792</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9999999626871546</v>
+        <v>0.9999999999786762</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7800127481514563</v>
+        <v>0.7439447453299941</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9973809004381964</v>
+        <v>0.9978091710259364</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9938540260056474</v>
+        <v>0.9945826312353547</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9999973457888351</v>
+        <v>0.9999949817476836</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8569355768601843</v>
+        <v>0.8140904174053036</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9999999626871546</v>
+        <v>0.9999999999786762</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9958675900093579</v>
+        <v>0.994348373682664</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9994058455982519</v>
+        <v>0.9998100523043928</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9531832946534433</v>
+        <v>0.9350434588729263</v>
       </c>
       <c r="R15" t="n">
-        <v>0.9721695523488892</v>
+        <v>0.9606638290399451</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9999999999919553</v>
+        <v>0.9999999999942663</v>
       </c>
     </row>
     <row r="16">
@@ -1386,58 +1386,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09403185512545449</v>
+        <v>0.1074594209860342</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1008260567127619</v>
+        <v>0.11662015316839</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1501692978074877</v>
+        <v>0.1717956003943187</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09884810883431702</v>
+        <v>0.1138680557125733</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1617833382065257</v>
+        <v>0.1845031022484848</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9237715054298662</v>
+        <v>0.9900534448315782</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02233949966171875</v>
+        <v>0.02867436253240938</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9999999999999949</v>
+        <v>0.9999999999993628</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8216969198265386</v>
+        <v>0.8591161561360803</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03967466807859171</v>
+        <v>0.04517443243272309</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9237715054298662</v>
+        <v>0.9900534448315782</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3227539599656162</v>
+        <v>0.3739051150900054</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9994058455982519</v>
+        <v>0.9998100523043928</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1074606443935962</v>
+        <v>0.1228464369926311</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1481815776293341</v>
+        <v>0.169615503534845</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9999974070800441</v>
+        <v>0.9999995500611253</v>
       </c>
     </row>
     <row r="17">
@@ -1462,34 +1462,34 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9998007718358193</v>
+        <v>0.9957286536657738</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9999999999977597</v>
+        <v>0.9999999999988644</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05903825207674097</v>
+        <v>0.04899119666379644</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03781785036329598</v>
+        <v>0.03033572824586462</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9999881938555958</v>
+        <v>0.9999822888715498</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9999999999999976</v>
+        <v>0.9999999999999958</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9998007718358193</v>
+        <v>0.9957286536657738</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9999999999983491</v>
+        <v>0.9999999999948865</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9531832946534433</v>
+        <v>0.9350434588729263</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1074606443935962</v>
+        <v>0.1228464369926311</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>0.7588933297398908</v>
+        <v>0.7160006344770756</v>
       </c>
     </row>
     <row r="18">
@@ -1523,34 +1523,34 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9999374886876229</v>
+        <v>0.9981526197391444</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9999999999087222</v>
+        <v>0.9999999999380674</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08537678848223287</v>
+        <v>0.07298016272622442</v>
       </c>
       <c r="J18" t="n">
-        <v>0.05646191876492956</v>
+        <v>0.04677909656158089</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9999974070800441</v>
+        <v>0.9999961651502576</v>
       </c>
       <c r="L18" t="n">
-        <v>0.999999999999477</v>
+        <v>0.9999999999990612</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9999374886876229</v>
+        <v>0.9981526197391444</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9999999999999881</v>
+        <v>0.999999999999957</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9721695523488892</v>
+        <v>0.9606638290399451</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1481815776293341</v>
+        <v>0.169615503534845</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0.8216969198265386</v>
+        <v>0.7874441365741164</v>
       </c>
     </row>
     <row r="19">
@@ -1569,55 +1569,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7316862343275934</v>
+        <v>0.6857438872982189</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7459640792861522</v>
+        <v>0.7042597308744326</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8241912481311165</v>
+        <v>0.790196617424953</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7419213951262693</v>
+        <v>0.6988592913167877</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8379370189500721</v>
+        <v>0.8054275387576292</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9999505123374889</v>
+        <v>0.9999991573145582</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4430730541950977</v>
+        <v>0.4068900230061643</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9999706065141514</v>
+        <v>0.9999752706606589</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9998836612903237</v>
+        <v>0.9998948332707006</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9993974093105712</v>
+        <v>0.9991828500517769</v>
       </c>
       <c r="L19" t="n">
-        <v>0.553248456883755</v>
+        <v>0.4955131450765765</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9999505123374889</v>
+        <v>0.9999991573145582</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9435263523749863</v>
+        <v>0.9341894197756684</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9999999999919553</v>
+        <v>0.9999999999942663</v>
       </c>
       <c r="P19" t="n">
-        <v>0.9999974070800441</v>
+        <v>0.9999995500611253</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.7588933297398908</v>
+        <v>0.7160006344770756</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8216969198265386</v>
+        <v>0.7874441365741164</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>

--- a/Modelos em Python/resultado_nemenyi_mae.xlsx
+++ b/Modelos em Python/resultado_nemenyi_mae.xlsx
@@ -547,34 +547,34 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9942280523701608</v>
+        <v>0.9992262297909508</v>
       </c>
       <c r="H2" t="n">
-        <v>0.999999999999825</v>
+        <v>0.9999999999998942</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04160606267909008</v>
+        <v>0.04677706369868988</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02541928739178422</v>
+        <v>0.0358139590211291</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9999694664282879</v>
+        <v>0.99993748507021</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9942280523701608</v>
+        <v>0.9992262297909508</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9999999999763223</v>
+        <v>0.9999999999951723</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9223293410851037</v>
+        <v>0.9223272211216296</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1074594209860342</v>
+        <v>0.0858122139314615</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6857438872982189</v>
+        <v>0.6945055795432042</v>
       </c>
     </row>
     <row r="3">
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9951846776758988</v>
+        <v>0.99936255761582</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9999999999994412</v>
+        <v>0.9999999999997149</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04597100461404051</v>
+        <v>0.05070371007894697</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02831584187522105</v>
+        <v>0.03896730430927844</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9999779943789068</v>
+        <v>0.9999514012272739</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9999999999999984</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9951846776758988</v>
+        <v>0.99936255761582</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9999999999904962</v>
+        <v>0.9999999999978912</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9302444152830072</v>
+        <v>0.9288900499252688</v>
       </c>
       <c r="P3" t="n">
-        <v>0.11662015316839</v>
+        <v>0.09215181884123153</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7042597308744326</v>
+        <v>0.7096152388214727</v>
       </c>
     </row>
     <row r="4">
@@ -669,34 +669,34 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9982197778532474</v>
+        <v>0.9998382511876658</v>
       </c>
       <c r="H4" t="n">
-        <v>0.99999999992829</v>
+        <v>0.9999999999438735</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07415208976522472</v>
+        <v>0.08320058490996338</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0475988225522491</v>
+        <v>0.06553358983093804</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9999964178514729</v>
+        <v>0.9999919049739798</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9999999999988644</v>
+        <v>0.9999999999994412</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9982197778532474</v>
+        <v>0.9998382511876658</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9999999999999659</v>
+        <v>0.9999999999999976</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9615299491464554</v>
+        <v>0.9620979648964942</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1717956003943187</v>
+        <v>0.142323189862631</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>0.790196617424953</v>
+        <v>0.799227684280888</v>
       </c>
     </row>
     <row r="5">
@@ -730,34 +730,34 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9949185029488582</v>
+        <v>0.9993259668689148</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9999999999995994</v>
+        <v>0.9999999999997838</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04464972780492992</v>
+        <v>0.04955527994223427</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02743615626116927</v>
+        <v>0.03804359660550226</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9999757449393215</v>
+        <v>0.9999477443373809</v>
       </c>
       <c r="L5" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9949185029488582</v>
+        <v>0.9993259668689148</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9999999999875008</v>
+        <v>0.9999999999973165</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9279799374946214</v>
+        <v>0.9270574148609269</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1138680557125733</v>
+        <v>0.09030500106764078</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6988592913167877</v>
+        <v>0.7053295291557735</v>
       </c>
     </row>
     <row r="6">
@@ -791,34 +791,34 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9985615634501179</v>
+        <v>0.9998776755911725</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9999999998395077</v>
+        <v>0.9999999998728151</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08107469498891418</v>
+        <v>0.09076402318898226</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05246921548590947</v>
+        <v>0.0718200922959549</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9999975831886049</v>
+        <v>0.9999943960843748</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9999999999967923</v>
+        <v>0.999999999998349</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9985615634501179</v>
+        <v>0.9998776755911725</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9999999999999915</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="O6" t="n">
-        <v>0.966162414070792</v>
+        <v>0.9666763848017206</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1845031022484848</v>
+        <v>0.1535171660566514</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8054275387576292</v>
+        <v>0.8140862520476002</v>
       </c>
     </row>
     <row r="7">
@@ -837,58 +837,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9942280523701608</v>
+        <v>0.9992262297909508</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9951846776758988</v>
+        <v>0.99936255761582</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9982197778532474</v>
+        <v>0.9998382511876658</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9949185029488582</v>
+        <v>0.9993259668689148</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9985615634501179</v>
+        <v>0.9998776755911725</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9541730302999548</v>
+        <v>0.9891572601022848</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9564213958894222</v>
+        <v>0.8886893765008376</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9251929949014686</v>
+        <v>0.8583878433843792</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9999999997470126</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9741120329791934</v>
+        <v>0.9952362851712843</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9999254368627951</v>
+        <v>0.9999950916434953</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9999999999786762</v>
+        <v>0.9999999778713673</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9900534448315782</v>
+        <v>0.9439064433065034</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9957286536657738</v>
+        <v>0.9994696223296345</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9981526197391444</v>
+        <v>0.9998302131551261</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9999991573145582</v>
+        <v>0.9999717056355839</v>
       </c>
     </row>
     <row r="8">
@@ -898,58 +898,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999999999999825</v>
+        <v>0.9999999999998942</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9999999999994412</v>
+        <v>0.9999999999997149</v>
       </c>
       <c r="D8" t="n">
-        <v>0.99999999992829</v>
+        <v>0.9999999999438735</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999999999995994</v>
+        <v>0.9999999999997838</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999999998395077</v>
+        <v>0.9999999998728151</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9541730302999548</v>
+        <v>0.9891572601022848</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.008648991466320033</v>
+        <v>0.0105193700630876</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004720368732019025</v>
+        <v>0.007571765313978579</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9987345120574842</v>
+        <v>0.9981065570533871</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9541730302999548</v>
+        <v>0.9891572601022848</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9999997977876655</v>
+        <v>0.9999999301272527</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7439447453299941</v>
+        <v>0.7509684228637454</v>
       </c>
       <c r="P8" t="n">
-        <v>0.02867436253240938</v>
+        <v>0.02248398789929184</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9999999999988644</v>
+        <v>0.9999999999993199</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9999999999380674</v>
+        <v>0.9999999999516384</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4068900230061643</v>
+        <v>0.4242871441345122</v>
       </c>
     </row>
     <row r="9">
@@ -959,25 +959,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04160606267909008</v>
+        <v>0.04677706369868988</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04597100461404051</v>
+        <v>0.05070371007894697</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07415208976522472</v>
+        <v>0.08320058490996338</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04464972780492992</v>
+        <v>0.04955527994223427</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08107469498891418</v>
+        <v>0.09076402318898226</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9564213958894222</v>
+        <v>0.8886893765008376</v>
       </c>
       <c r="H9" t="n">
-        <v>0.008648991466320033</v>
+        <v>0.0105193700630876</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -986,31 +986,31 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6977745696477533</v>
+        <v>0.7588867152474277</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01474264054130164</v>
+        <v>0.0184441654153789</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9564213958894222</v>
+        <v>0.8886893765008376</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2018394254081202</v>
+        <v>0.1946207765686394</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9978091710259364</v>
+        <v>0.9982847294586014</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04899119666379644</v>
+        <v>0.05458691156626523</v>
       </c>
       <c r="R9" t="n">
-        <v>0.07298016272622442</v>
+        <v>0.08191809109804847</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9999752706606589</v>
+        <v>0.9999804410132045</v>
       </c>
     </row>
     <row r="10">
@@ -1020,25 +1020,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02541928739178422</v>
+        <v>0.0358139590211291</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02831584187522105</v>
+        <v>0.03896730430927844</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0475988225522491</v>
+        <v>0.06553358983093804</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02743615626116927</v>
+        <v>0.03804359660550226</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05246921548590947</v>
+        <v>0.0718200922959549</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9251929949014686</v>
+        <v>0.8583878433843792</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004720368732019025</v>
+        <v>0.007571765313978579</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1047,31 +1047,31 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6068369358845604</v>
+        <v>0.7128125784984274</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008336998045343422</v>
+        <v>0.01356651822980292</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9251929949014686</v>
+        <v>0.8583878433843792</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1436138262879808</v>
+        <v>0.161077327378668</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9945826312353547</v>
+        <v>0.9970565011494962</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9999999999993628</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03033572824586462</v>
+        <v>0.04209918353851182</v>
       </c>
       <c r="R10" t="n">
-        <v>0.04677909656158089</v>
+        <v>0.06447114240243731</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9998948332707006</v>
+        <v>0.9999539897531978</v>
       </c>
     </row>
     <row r="11">
@@ -1081,58 +1081,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999694664282879</v>
+        <v>0.99993748507021</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9999779943789068</v>
+        <v>0.9999514012272739</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999964178514729</v>
+        <v>0.9999919049739798</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999757449393215</v>
+        <v>0.9999477443373809</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999975831886049</v>
+        <v>0.9999943960843748</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9999999997470126</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9987345120574842</v>
+        <v>0.9981065570533871</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6977745696477533</v>
+        <v>0.7588867152474277</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6068369358845604</v>
+        <v>0.7128125784984274</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9995474238123788</v>
+        <v>0.9993444884185095</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9999999997470126</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9999999921303288</v>
+        <v>0.9999999257160787</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9999949817476836</v>
+        <v>0.999997952137083</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8591161561360803</v>
+        <v>0.8547281414034755</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9999822888715498</v>
+        <v>0.9999617401753726</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9999961651502576</v>
+        <v>0.9999913721393091</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9991828500517769</v>
+        <v>0.9995792736874718</v>
       </c>
     </row>
     <row r="12">
@@ -1142,58 +1142,58 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C12" t="n">
         <v>0.9999999999999997</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.9999999999999984</v>
-      </c>
       <c r="D12" t="n">
-        <v>0.9999999999988644</v>
+        <v>0.9999999999994412</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999999999967923</v>
+        <v>0.999999999998349</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9741120329791934</v>
+        <v>0.9952362851712843</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01474264054130164</v>
+        <v>0.0184441654153789</v>
       </c>
       <c r="J12" t="n">
-        <v>0.008336998045343422</v>
+        <v>0.01356651822980292</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9995474238123788</v>
+        <v>0.9993444884185095</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9741120329791934</v>
+        <v>0.9952362851712843</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9999999799807124</v>
+        <v>0.9999999954394871</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8140904174053036</v>
+        <v>0.8250128234954726</v>
       </c>
       <c r="P12" t="n">
-        <v>0.04517443243272309</v>
+        <v>0.03736286170044645</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9999999999999958</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9999999999990612</v>
+        <v>0.999999999999542</v>
       </c>
       <c r="S12" t="n">
-        <v>0.4955131450765765</v>
+        <v>0.5207629151839493</v>
       </c>
     </row>
     <row r="13">
@@ -1203,58 +1203,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9942280523701608</v>
+        <v>0.9992262297909508</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9951846776758988</v>
+        <v>0.99936255761582</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9982197778532474</v>
+        <v>0.9998382511876658</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9949185029488582</v>
+        <v>0.9993259668689148</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9985615634501179</v>
+        <v>0.9998776755911725</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9541730302999548</v>
+        <v>0.9891572601022848</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9564213958894222</v>
+        <v>0.8886893765008376</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9251929949014686</v>
+        <v>0.8583878433843792</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9999999997470126</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9741120329791934</v>
+        <v>0.9952362851712843</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9999254368627951</v>
+        <v>0.9999950916434953</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9999999999786762</v>
+        <v>0.9999999778713673</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9900534448315782</v>
+        <v>0.9439064433065034</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9957286536657738</v>
+        <v>0.9994696223296345</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9981526197391444</v>
+        <v>0.9998302131551261</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9999991573145582</v>
+        <v>0.9999717056355839</v>
       </c>
     </row>
     <row r="14">
@@ -1264,58 +1264,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999999999763223</v>
+        <v>0.9999999999951723</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999999999904962</v>
+        <v>0.9999999999978912</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999999999999659</v>
+        <v>0.9999999999999976</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999999999875008</v>
+        <v>0.9999999999973165</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999999999999915</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9999254368627951</v>
+        <v>0.9999950916434953</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9999997977876655</v>
+        <v>0.9999999301272527</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2018394254081202</v>
+        <v>0.1946207765686394</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1436138262879808</v>
+        <v>0.161077327378668</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9999999921303288</v>
+        <v>0.9999999257160787</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9999999799807124</v>
+        <v>0.9999999954394871</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9999254368627951</v>
+        <v>0.9999950916434953</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.994348373682664</v>
+        <v>0.9923783328585472</v>
       </c>
       <c r="P14" t="n">
-        <v>0.3739051150900054</v>
+        <v>0.2948971767253458</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9999999999948865</v>
+        <v>0.9999999999990612</v>
       </c>
       <c r="R14" t="n">
-        <v>0.999999999999957</v>
+        <v>0.9999999999999968</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9341894197756684</v>
+        <v>0.9247190034683579</v>
       </c>
     </row>
     <row r="15">
@@ -1325,58 +1325,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9223293410851037</v>
+        <v>0.9223272211216296</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9302444152830072</v>
+        <v>0.9288900499252688</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9615299491464554</v>
+        <v>0.9620979648964942</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9279799374946214</v>
+        <v>0.9270574148609269</v>
       </c>
       <c r="F15" t="n">
-        <v>0.966162414070792</v>
+        <v>0.9666763848017206</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9999999999786762</v>
+        <v>0.9999999778713673</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7439447453299941</v>
+        <v>0.7509684228637454</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9978091710259364</v>
+        <v>0.9982847294586014</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9945826312353547</v>
+        <v>0.9970565011494962</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9999949817476836</v>
+        <v>0.999997952137083</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8140904174053036</v>
+        <v>0.8250128234954726</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9999999999786762</v>
+        <v>0.9999999778713673</v>
       </c>
       <c r="N15" t="n">
-        <v>0.994348373682664</v>
+        <v>0.9923783328585472</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9998100523043928</v>
+        <v>0.9996205301975822</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9350434588729263</v>
+        <v>0.9346156237847575</v>
       </c>
       <c r="R15" t="n">
-        <v>0.9606638290399451</v>
+        <v>0.9612417243901519</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9999999999942663</v>
+        <v>0.999999999996391</v>
       </c>
     </row>
     <row r="16">
@@ -1386,58 +1386,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1074594209860342</v>
+        <v>0.0858122139314615</v>
       </c>
       <c r="C16" t="n">
-        <v>0.11662015316839</v>
+        <v>0.09215181884123153</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1717956003943187</v>
+        <v>0.142323189862631</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1138680557125733</v>
+        <v>0.09030500106764078</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1845031022484848</v>
+        <v>0.1535171660566514</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9900534448315782</v>
+        <v>0.9439064433065034</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02867436253240938</v>
+        <v>0.02248398789929184</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9999999999993628</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8591161561360803</v>
+        <v>0.8547281414034755</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04517443243272309</v>
+        <v>0.03736286170044645</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9900534448315782</v>
+        <v>0.9439064433065034</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3739051150900054</v>
+        <v>0.2948971767253458</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9998100523043928</v>
+        <v>0.9996205301975822</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1228464369926311</v>
+        <v>0.09835362635901825</v>
       </c>
       <c r="R16" t="n">
-        <v>0.169615503534845</v>
+        <v>0.1404091326363623</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9999995500611253</v>
+        <v>0.9999982686553576</v>
       </c>
     </row>
     <row r="17">
@@ -1462,34 +1462,34 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9957286536657738</v>
+        <v>0.9994696223296345</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9999999999988644</v>
+        <v>0.9999999999993199</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04899119666379644</v>
+        <v>0.05458691156626523</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03033572824586462</v>
+        <v>0.04209918353851182</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9999822888715498</v>
+        <v>0.9999617401753726</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9999999999999958</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9957286536657738</v>
+        <v>0.9994696223296345</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9999999999948865</v>
+        <v>0.9999999999990612</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9350434588729263</v>
+        <v>0.9346156237847575</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1228464369926311</v>
+        <v>0.09835362635901825</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>0.7160006344770756</v>
+        <v>0.7233625469342813</v>
       </c>
     </row>
     <row r="18">
@@ -1523,34 +1523,34 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9981526197391444</v>
+        <v>0.9998302131551261</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9999999999380674</v>
+        <v>0.9999999999516384</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07298016272622442</v>
+        <v>0.08191809109804847</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04677909656158089</v>
+        <v>0.06447114240243731</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9999961651502576</v>
+        <v>0.9999913721393091</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9999999999990612</v>
+        <v>0.999999999999542</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9981526197391444</v>
+        <v>0.9998302131551261</v>
       </c>
       <c r="N18" t="n">
-        <v>0.999999999999957</v>
+        <v>0.9999999999999968</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9606638290399451</v>
+        <v>0.9612417243901519</v>
       </c>
       <c r="P18" t="n">
-        <v>0.169615503534845</v>
+        <v>0.1404091326363623</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0.7874441365741164</v>
+        <v>0.7965396896780284</v>
       </c>
     </row>
     <row r="19">
@@ -1569,55 +1569,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6857438872982189</v>
+        <v>0.6945055795432042</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7042597308744326</v>
+        <v>0.7096152388214727</v>
       </c>
       <c r="D19" t="n">
-        <v>0.790196617424953</v>
+        <v>0.799227684280888</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6988592913167877</v>
+        <v>0.7053295291557735</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8054275387576292</v>
+        <v>0.8140862520476002</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9999991573145582</v>
+        <v>0.9999717056355839</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4068900230061643</v>
+        <v>0.4242871441345122</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9999752706606589</v>
+        <v>0.9999804410132045</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9998948332707006</v>
+        <v>0.9999539897531978</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9991828500517769</v>
+        <v>0.9995792736874718</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4955131450765765</v>
+        <v>0.5207629151839493</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9999991573145582</v>
+        <v>0.9999717056355839</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9341894197756684</v>
+        <v>0.9247190034683579</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9999999999942663</v>
+        <v>0.999999999996391</v>
       </c>
       <c r="P19" t="n">
-        <v>0.9999995500611253</v>
+        <v>0.9999982686553576</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.7160006344770756</v>
+        <v>0.7233625469342813</v>
       </c>
       <c r="R19" t="n">
-        <v>0.7874441365741164</v>
+        <v>0.7965396896780284</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
